--- a/Тест.xlsx
+++ b/Тест.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,9 @@
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>42</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -431,7 +433,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1">
+        <v>42</v>
+      </c>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +627,9 @@
     </row>
     <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>42</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -635,7 +641,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>42</v>
+      </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">

--- a/Тест.xlsx
+++ b/Тест.xlsx
@@ -82,11 +82,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,275 +400,280 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="5.7109375" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>42</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>42</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
         <v>42</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4">
         <v>42</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>42</v>
+      </c>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Тест.xlsx
+++ b/Тест.xlsx
@@ -84,9 +84,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -94,6 +91,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,280 +400,292 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="5.7109375" style="2"/>
+    <col min="1" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3">
+        <v>42</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>42</v>
-      </c>
-      <c r="O14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>42</v>
+      </c>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Тест.xlsx
+++ b/Тест.xlsx
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +69,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -82,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -94,6 +100,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +409,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,11 +514,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>

--- a/Тест.xlsx
+++ b/Тест.xlsx
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +69,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -82,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -94,6 +100,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +409,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -587,11 +596,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="M10" s="2"/>
